--- a/KCF/data/Analytics All Web Site Data Pages 20200101-20210223.xlsx
+++ b/KCF/data/Analytics All Web Site Data Pages 20200101-20210223.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/metamorphosis/Github/MachineLearningWorkbook/KCF/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/metamorphosis/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C2798F-248C-F54A-B052-DE58934E1026}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1E402B-F856-5D4D-87BF-D06BC8A56541}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="2440" windowWidth="32820" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32820" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -491,9 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="A1:H12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -815,9 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B422"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B422"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
